--- a/statistics/HistoricalDistanceData/historical_distance/Q23018347-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q23018347-en.xlsx
@@ -31,25 +31,25 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Office of the Clerk of the U.S. House of Representatives</t>
+  </si>
+  <si>
     <t>Joe Biden Decides Not to Enter Presidential Race</t>
   </si>
   <si>
-    <t>Office of the Clerk of the U.S. House of Representatives</t>
+    <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
     <t>2015-10-21T22:57:00UTC</t>
   </si>
   <si>
-    <t>1-01-01T00:00:00UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20120402071556/http://clerk.house.gov/floorsummary/floor.html?day=20090108</t>
+  </si>
+  <si>
     <t>https://www.wsj.com/articles/joe-biden-decides-not-to-enter-presidential-race-1445444657</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20120402071556/http://clerk.house.gov/floorsummary/floor.html?day=20090108</t>
   </si>
 </sst>
 </file>
